--- a/Documentacao/Sprint1/DocumentacaoPrevia/ProductBacklog.xlsx
+++ b/Documentacao/Sprint1/DocumentacaoPrevia/ProductBacklog.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ultim\Desktop\BandTec\PI\SM ULTIMATE\Documentação\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E6498-A345-441A-B4CB-4BEB40340438}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E6CA6069-3313-462F-90AB-CE55A9106346}"/>
+    <workbookView windowWidth="19485" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +32,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Site estático no estilo </t>
     </r>
     <r>
@@ -57,7 +47,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>one page</t>
@@ -67,7 +57,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> onde será exibida a nossa proposta, visão, missão e valores.</t>
@@ -75,6 +65,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Home do site estático com imagens em formato </t>
     </r>
     <r>
@@ -83,7 +80,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>carousel</t>
@@ -93,12 +90,12 @@
     <t>Descrição da proposta da empresa</t>
   </si>
   <si>
+    <t>Descrição do produto</t>
+  </si>
+  <si>
     <t>Area para nossa Visão, missão e valores</t>
   </si>
   <si>
-    <t>Descrição do produto</t>
-  </si>
-  <si>
     <t>Rodapé com endereços, telefones e meios de contato</t>
   </si>
   <si>
@@ -120,7 +117,16 @@
     <t>Inserir uma edição de GRIDs na home para que o usuário possa escolher quais gráficos usar e onde os colocar na tela para seu maior conforto</t>
   </si>
   <si>
-    <t>Tela de gerenciamento contendo as informações dos principais agentes do projeto (Fiscais, Ônibus, Linhas e Motoristas)</t>
+    <t>Tela de gerenciamento para os steakholders do projeto</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento voltado ao motorista (onde ele vera as informações sobre as viagens feitas, jornada de trabalho, proximas viagens)</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento voltado ao fiscal (onde ele vera as informações das viagens feitas pelos carros de sua linha, ver atrasos e indicações de tomada de decisão)</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento voltado ao gerente (onde ele vera informações sobre as viagens da linha, individual de cada carro, os tempos de viagens, horas de inicio e fim da viagen, e dashboards que o ajudam na tomada de decisão dentro de seu negócio)</t>
   </si>
   <si>
     <t>CRUD específicos (Partindo dos agentes da tela de gerenciamento)</t>
@@ -147,16 +153,23 @@
     <t>IoT</t>
   </si>
   <si>
+    <t>Kit Arduino para ser a base do transporte e captura de dados relacionados ao projeto</t>
+  </si>
+  <si>
     <t>Módulo Rfid (RC522) para transportar e capturar os dados de viagem, inicio, fim, motorista e linha percorrida.</t>
   </si>
   <si>
-    <t>Kit Arduino para ser a base do transporte e captura de dados relacionados ao projeto</t>
-  </si>
-  <si>
     <t>Rede para o trafego dos dados (Wi-Fi ou dados móveis)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Confecionar uma </t>
     </r>
     <r>
@@ -165,7 +178,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>case</t>
@@ -175,7 +188,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> para o equipamento do projeto com a finalidade de proteger o hardware em um ambiente instavél.</t>
@@ -197,13 +210,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,27 +230,364 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -241,332 +597,574 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -615,7 +1213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -648,26 +1246,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -700,23 +1281,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -858,30 +1422,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7789AD6-C321-44A3-A889-EC6BFAEC31A6}">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="38.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="15" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,231 +1454,231 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+    <row r="2" ht="42.75" spans="1:4">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+    <row r="3" ht="28.5" spans="1:4">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+    <row r="5" ht="15" spans="1:4">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="7" ht="28.5" spans="1:4">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:4">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10">
+    </row>
+    <row r="10" ht="28.5" spans="1:4">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="57" spans="1:4">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="57" spans="1:4">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:4">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="57" spans="1:4">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="57" spans="1:4">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="85.5" spans="1:4">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:4">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="15">
+    <row r="19" ht="57" spans="1:4">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="13" t="s">
+    <row r="20" ht="28.5" spans="1:4">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="D15" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>16</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
-        <v>17</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
-        <v>18</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
-        <v>19</v>
-      </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="19" t="s">
         <v>24</v>
       </c>
@@ -1127,101 +1686,138 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+    <row r="21" ht="28.5" spans="1:4">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" ht="29.25" spans="1:4">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D23" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:4">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>21</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
-        <v>22</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>23</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
+    <row r="25" ht="42.75" spans="1:4">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" ht="28.5" spans="1:4">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" ht="42.75" spans="1:4">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="43.5" spans="1:4">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
-        <v>25</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="15">
+    <row r="29" ht="28.5" spans="1:4">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="18">
+    <row r="30" ht="57.75" spans="1:4">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="26">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B9:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter/>
 </worksheet>
 </file>